--- a/FM-72_FORMATO REPORTE EMPLEO ALCALDIA DE MEDELLÍN_FGSC2 OCTUBRE.xlsx
+++ b/FM-72_FORMATO REPORTE EMPLEO ALCALDIA DE MEDELLÍN_FGSC2 OCTUBRE.xlsx
@@ -3129,19 +3129,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3150,6 +3141,15 @@
     </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3444,8 +3444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A299" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C304" sqref="C304"/>
+    <sheetView tabSelected="1" topLeftCell="K22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3479,11 +3479,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149"/>
+      <c r="A1" s="154"/>
       <c r="B1" s="150"/>
       <c r="C1" s="150"/>
       <c r="D1" s="150"/>
-      <c r="E1" s="153" t="s">
+      <c r="E1" s="156" t="s">
         <v>600</v>
       </c>
       <c r="F1" s="150"/>
@@ -3522,15 +3522,15 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="155" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="150"/>
-      <c r="C2" s="151" t="s">
+      <c r="C2" s="155" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="150"/>
-      <c r="E2" s="151" t="s">
+      <c r="E2" s="155" t="s">
         <v>306</v>
       </c>
       <c r="F2" s="150"/>
@@ -3551,7 +3551,7 @@
       <c r="U2" s="150"/>
       <c r="V2" s="150"/>
       <c r="W2" s="150"/>
-      <c r="X2" s="153" t="s">
+      <c r="X2" s="156" t="s">
         <v>2</v>
       </c>
       <c r="Y2" s="150"/>
@@ -3571,11 +3571,11 @@
       <c r="AM2" s="2"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="149" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="150"/>
-      <c r="C3" s="152" t="s">
+      <c r="C3" s="149" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="150"/>
@@ -3616,11 +3616,11 @@
       <c r="AM3" s="2"/>
     </row>
     <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="149" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="150"/>
-      <c r="C4" s="156">
+      <c r="C4" s="153">
         <v>42217</v>
       </c>
       <c r="D4" s="150"/>
@@ -3661,11 +3661,11 @@
       <c r="AM4" s="2"/>
     </row>
     <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="149" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="150"/>
-      <c r="C5" s="152" t="s">
+      <c r="C5" s="149" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="150"/>
@@ -3706,11 +3706,11 @@
       <c r="AM5" s="2"/>
     </row>
     <row r="6" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="149" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="150"/>
-      <c r="C6" s="154" t="s">
+      <c r="C6" s="151" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="150"/>
@@ -3721,7 +3721,7 @@
       <c r="I6" s="150"/>
       <c r="J6" s="150"/>
       <c r="K6" s="150"/>
-      <c r="L6" s="154" t="s">
+      <c r="L6" s="151" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="150"/>
@@ -3732,7 +3732,7 @@
       <c r="R6" s="150"/>
       <c r="S6" s="150"/>
       <c r="T6" s="150"/>
-      <c r="U6" s="155" t="s">
+      <c r="U6" s="152" t="s">
         <v>10</v>
       </c>
       <c r="V6" s="150"/>
@@ -59142,6 +59142,14 @@
   </sheetData>
   <autoFilter ref="A7:AM288"/>
   <mergeCells count="16">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E1:AC1"/>
+    <mergeCell ref="E2:W2"/>
+    <mergeCell ref="X2:AC2"/>
+    <mergeCell ref="C3:AC3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="L6:T6"/>
     <mergeCell ref="U6:AC6"/>
@@ -59150,14 +59158,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:K6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E1:AC1"/>
-    <mergeCell ref="E2:W2"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="C3:AC3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I8" r:id="rId1" display="mailto:ramonaristizabal@hotmail.com"/>

--- a/FM-72_FORMATO REPORTE EMPLEO ALCALDIA DE MEDELLÍN_FGSC2 OCTUBRE.xlsx
+++ b/FM-72_FORMATO REPORTE EMPLEO ALCALDIA DE MEDELLÍN_FGSC2 OCTUBRE.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5330" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5332" uniqueCount="800">
   <si>
     <t>Código:  FM-72</t>
   </si>
@@ -2440,6 +2440,12 @@
   </si>
   <si>
     <t>DIANA PATRICIA TORES CORREA</t>
+  </si>
+  <si>
+    <t>TERMINACIÓN DE CONTRACTO  A PARTIR DEL 15 DE OCTUBRE DEL 2015</t>
+  </si>
+  <si>
+    <t>TRASLADO DESDE 05 DE OCTUBRE DE 2015 A RUTA DE CAMPEONES 3</t>
   </si>
 </sst>
 </file>
@@ -3444,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E304" sqref="E304"/>
+    <sheetView tabSelected="1" topLeftCell="V119" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC119" sqref="AC119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3474,7 +3480,7 @@
     <col min="26" max="26" width="6.42578125" customWidth="1"/>
     <col min="27" max="27" width="7.42578125" customWidth="1"/>
     <col min="28" max="28" width="30.5703125" customWidth="1"/>
-    <col min="29" max="29" width="59.7109375" customWidth="1"/>
+    <col min="29" max="29" width="56.5703125" customWidth="1"/>
     <col min="30" max="39" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13015,7 +13021,9 @@
       <c r="AB119" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="AC119" s="44"/>
+      <c r="AC119" s="93" t="s">
+        <v>799</v>
+      </c>
       <c r="AD119" s="65"/>
       <c r="AE119" s="49"/>
       <c r="AF119" s="49"/>
@@ -22748,7 +22756,9 @@
       <c r="AB238" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="AC238" s="44"/>
+      <c r="AC238" s="44" t="s">
+        <v>798</v>
+      </c>
       <c r="AD238" s="65"/>
       <c r="AE238" s="49"/>
       <c r="AF238" s="49"/>

--- a/FM-72_FORMATO REPORTE EMPLEO ALCALDIA DE MEDELLÍN_FGSC2 OCTUBRE.xlsx
+++ b/FM-72_FORMATO REPORTE EMPLEO ALCALDIA DE MEDELLÍN_FGSC2 OCTUBRE.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5332" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5656" uniqueCount="823">
   <si>
     <t>Código:  FM-72</t>
   </si>
@@ -2446,6 +2446,75 @@
   </si>
   <si>
     <t>TRASLADO DESDE 05 DE OCTUBRE DE 2015 A RUTA DE CAMPEONES 3</t>
+  </si>
+  <si>
+    <t>MIGUEL PEREA HURTADO</t>
+  </si>
+  <si>
+    <t>JUAN JOSE MAZO CHAVARRIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLORIA ALVAREZ LOPEZ </t>
+  </si>
+  <si>
+    <t>YHONNY MUÑOZ MONTOYA</t>
+  </si>
+  <si>
+    <t>CARLOS DAVID ALVAREZ LOPEZ</t>
+  </si>
+  <si>
+    <t>JORGE ELIECER COLORADO VARGASZ</t>
+  </si>
+  <si>
+    <t>DIANA MARCELA GONZALEZ CHAVERRA</t>
+  </si>
+  <si>
+    <t>YONGER DAVID TABORDA ALMARIO</t>
+  </si>
+  <si>
+    <t>HECTOR JAIRO ESTRADA ZAPATA</t>
+  </si>
+  <si>
+    <t>MARIA JANNETH TABORDA ESTRADA</t>
+  </si>
+  <si>
+    <t>ERIKA YOHANA GUSMAN SUREZ</t>
+  </si>
+  <si>
+    <t>DORA ELENA CHANCI CHANCI</t>
+  </si>
+  <si>
+    <t>PAULA ANDREA MARIN ESCOBAR</t>
+  </si>
+  <si>
+    <t>ALBERT ANDRES LEDESMA POSADA</t>
+  </si>
+  <si>
+    <t>DANIEL URREGO VILLADA</t>
+  </si>
+  <si>
+    <t>DEINER ABNDRES POSADA CHAVEZ</t>
+  </si>
+  <si>
+    <t>ROBINSON ANTONIO SABALA MUÑOZ</t>
+  </si>
+  <si>
+    <t>ANTONIA DEL CARMEN GIRALDO</t>
+  </si>
+  <si>
+    <t>VILLALIAN</t>
+  </si>
+  <si>
+    <t>GEIDY JHOANA PALOMEQUE PALOMEQUE</t>
+  </si>
+  <si>
+    <t>DIEGO FERNANDO CASTAÑO VELEZ</t>
+  </si>
+  <si>
+    <t>BIBIANA MOSQUERA CORDOBA</t>
+  </si>
+  <si>
+    <t>DIANA PATRICIA MAZO LOPEZ</t>
   </si>
 </sst>
 </file>
@@ -2573,7 +2642,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2682,6 +2751,12 @@
         <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFCC66FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -2739,7 +2814,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3135,6 +3210,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="6" fillId="17" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3450,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V119" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC119" sqref="AC119"/>
+    <sheetView tabSelected="1" topLeftCell="A373" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC392" sqref="A389:AC392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3485,37 +3575,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="154"/>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="156" t="s">
+      <c r="A1" s="159"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="161" t="s">
         <v>600</v>
       </c>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
-      <c r="J1" s="150"/>
-      <c r="K1" s="150"/>
-      <c r="L1" s="150"/>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="150"/>
-      <c r="S1" s="150"/>
-      <c r="T1" s="150"/>
-      <c r="U1" s="150"/>
-      <c r="V1" s="150"/>
-      <c r="W1" s="150"/>
-      <c r="X1" s="150"/>
-      <c r="Y1" s="150"/>
-      <c r="Z1" s="150"/>
-      <c r="AA1" s="150"/>
-      <c r="AB1" s="150"/>
-      <c r="AC1" s="150"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="155"/>
+      <c r="AA1" s="155"/>
+      <c r="AB1" s="155"/>
+      <c r="AC1" s="155"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -3528,43 +3618,43 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="155" t="s">
+      <c r="B2" s="155"/>
+      <c r="C2" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="150"/>
-      <c r="E2" s="155" t="s">
+      <c r="D2" s="155"/>
+      <c r="E2" s="160" t="s">
         <v>306</v>
       </c>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="150"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="156" t="s">
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="155"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="155"/>
+      <c r="X2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="155"/>
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="155"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
@@ -3577,39 +3667,39 @@
       <c r="AM2" s="2"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="149" t="s">
+      <c r="A3" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="149" t="s">
+      <c r="B3" s="155"/>
+      <c r="C3" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
-      <c r="K3" s="150"/>
-      <c r="L3" s="150"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="O3" s="150"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
-      <c r="S3" s="150"/>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150"/>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="150"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="155"/>
+      <c r="T3" s="155"/>
+      <c r="U3" s="155"/>
+      <c r="V3" s="155"/>
+      <c r="W3" s="155"/>
+      <c r="X3" s="155"/>
+      <c r="Y3" s="155"/>
+      <c r="Z3" s="155"/>
+      <c r="AA3" s="155"/>
+      <c r="AB3" s="155"/>
+      <c r="AC3" s="155"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -3622,39 +3712,39 @@
       <c r="AM3" s="2"/>
     </row>
     <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="153">
+      <c r="B4" s="155"/>
+      <c r="C4" s="158">
         <v>42217</v>
       </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-      <c r="W4" s="150"/>
-      <c r="X4" s="150"/>
-      <c r="Y4" s="150"/>
-      <c r="Z4" s="150"/>
-      <c r="AA4" s="150"/>
-      <c r="AB4" s="150"/>
-      <c r="AC4" s="150"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="U4" s="155"/>
+      <c r="V4" s="155"/>
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="155"/>
+      <c r="Z4" s="155"/>
+      <c r="AA4" s="155"/>
+      <c r="AB4" s="155"/>
+      <c r="AC4" s="155"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -3667,39 +3757,39 @@
       <c r="AM4" s="2"/>
     </row>
     <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="149" t="s">
+      <c r="A5" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="149" t="s">
+      <c r="B5" s="155"/>
+      <c r="C5" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="150"/>
-      <c r="Q5" s="150"/>
-      <c r="R5" s="150"/>
-      <c r="S5" s="150"/>
-      <c r="T5" s="150"/>
-      <c r="U5" s="150"/>
-      <c r="V5" s="150"/>
-      <c r="W5" s="150"/>
-      <c r="X5" s="150"/>
-      <c r="Y5" s="150"/>
-      <c r="Z5" s="150"/>
-      <c r="AA5" s="150"/>
-      <c r="AB5" s="150"/>
-      <c r="AC5" s="150"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="155"/>
+      <c r="L5" s="155"/>
+      <c r="M5" s="155"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
+      <c r="T5" s="155"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="155"/>
+      <c r="W5" s="155"/>
+      <c r="X5" s="155"/>
+      <c r="Y5" s="155"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="155"/>
+      <c r="AB5" s="155"/>
+      <c r="AC5" s="155"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
@@ -3712,43 +3802,43 @@
       <c r="AM5" s="2"/>
     </row>
     <row r="6" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="149" t="s">
+      <c r="A6" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="151" t="s">
+      <c r="B6" s="155"/>
+      <c r="C6" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="150"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="151" t="s">
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+      <c r="K6" s="155"/>
+      <c r="L6" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="150"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="150"/>
-      <c r="S6" s="150"/>
-      <c r="T6" s="150"/>
-      <c r="U6" s="152" t="s">
+      <c r="M6" s="155"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="155"/>
+      <c r="Q6" s="155"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="155"/>
+      <c r="T6" s="155"/>
+      <c r="U6" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="150"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="150"/>
-      <c r="Z6" s="150"/>
-      <c r="AA6" s="150"/>
-      <c r="AB6" s="150"/>
-      <c r="AC6" s="150"/>
+      <c r="V6" s="155"/>
+      <c r="W6" s="155"/>
+      <c r="X6" s="155"/>
+      <c r="Y6" s="155"/>
+      <c r="Z6" s="155"/>
+      <c r="AA6" s="155"/>
+      <c r="AB6" s="155"/>
+      <c r="AC6" s="155"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
@@ -33878,33 +33968,79 @@
       <c r="AM369" s="2"/>
     </row>
     <row r="370" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A370" s="2"/>
-      <c r="B370" s="2"/>
-      <c r="C370" s="2"/>
-      <c r="D370" s="4"/>
-      <c r="E370" s="2"/>
-      <c r="F370" s="2"/>
-      <c r="G370" s="2"/>
-      <c r="I370" s="2"/>
-      <c r="J370" s="2"/>
-      <c r="K370" s="2"/>
-      <c r="L370" s="2"/>
-      <c r="M370" s="2"/>
-      <c r="N370" s="2"/>
-      <c r="O370" s="2"/>
-      <c r="P370" s="2"/>
-      <c r="Q370" s="2"/>
-      <c r="R370" s="2"/>
-      <c r="T370" s="140"/>
-      <c r="U370" s="140"/>
-      <c r="V370" s="2"/>
-      <c r="W370" s="2"/>
-      <c r="X370" s="2"/>
-      <c r="Y370" s="2"/>
-      <c r="Z370" s="2"/>
-      <c r="AA370" s="2"/>
-      <c r="AB370" s="2"/>
-      <c r="AC370" s="2"/>
+      <c r="A370" s="80"/>
+      <c r="B370" s="80"/>
+      <c r="C370" s="81" t="s">
+        <v>800</v>
+      </c>
+      <c r="D370" s="82">
+        <v>1037628969</v>
+      </c>
+      <c r="E370" s="83">
+        <v>3194913406</v>
+      </c>
+      <c r="F370" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G370" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="H370" s="97">
+        <v>8</v>
+      </c>
+      <c r="I370" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J370" s="82">
+        <v>22</v>
+      </c>
+      <c r="K370" s="81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L370" s="75">
+        <v>9</v>
+      </c>
+      <c r="M370" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="N370" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O370" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P370" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q370" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="R370" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S370" s="149">
+        <v>850000</v>
+      </c>
+      <c r="T370" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U370" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V370" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W370" s="80"/>
+      <c r="X370" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y370" s="80"/>
+      <c r="Z370" s="80"/>
+      <c r="AA370" s="80"/>
+      <c r="AB370" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC370" s="80"/>
       <c r="AD370" s="2"/>
       <c r="AE370" s="2"/>
       <c r="AF370" s="2"/>
@@ -33917,33 +34053,79 @@
       <c r="AM370" s="2"/>
     </row>
     <row r="371" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A371" s="2"/>
-      <c r="B371" s="2"/>
-      <c r="C371" s="2"/>
-      <c r="D371" s="4"/>
-      <c r="E371" s="2"/>
-      <c r="F371" s="2"/>
-      <c r="G371" s="2"/>
-      <c r="I371" s="2"/>
-      <c r="J371" s="2"/>
-      <c r="K371" s="2"/>
-      <c r="L371" s="2"/>
-      <c r="M371" s="2"/>
-      <c r="N371" s="2"/>
-      <c r="O371" s="2"/>
-      <c r="P371" s="2"/>
-      <c r="Q371" s="2"/>
-      <c r="R371" s="2"/>
-      <c r="T371" s="140"/>
-      <c r="U371" s="140"/>
-      <c r="V371" s="2"/>
-      <c r="W371" s="2"/>
-      <c r="X371" s="2"/>
-      <c r="Y371" s="2"/>
-      <c r="Z371" s="2"/>
-      <c r="AA371" s="2"/>
-      <c r="AB371" s="2"/>
-      <c r="AC371" s="2"/>
+      <c r="A371" s="80"/>
+      <c r="B371" s="80"/>
+      <c r="C371" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="D371" s="150">
+        <v>11807819</v>
+      </c>
+      <c r="E371" s="75">
+        <v>3127099285</v>
+      </c>
+      <c r="F371" s="75" t="s">
+        <v>91</v>
+      </c>
+      <c r="G371" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="H371" s="151">
+        <v>3</v>
+      </c>
+      <c r="I371" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="J371" s="75">
+        <v>37</v>
+      </c>
+      <c r="K371" s="152" t="s">
+        <v>622</v>
+      </c>
+      <c r="L371" s="75">
+        <v>11</v>
+      </c>
+      <c r="M371" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="N371" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O371" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P371" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q371" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="R371" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S371" s="153">
+        <v>644350</v>
+      </c>
+      <c r="T371" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U371" s="143">
+        <v>42403</v>
+      </c>
+      <c r="V371" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W371" s="80"/>
+      <c r="X371" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y371" s="80"/>
+      <c r="Z371" s="80"/>
+      <c r="AA371" s="80"/>
+      <c r="AB371" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC371" s="80"/>
       <c r="AD371" s="2"/>
       <c r="AE371" s="2"/>
       <c r="AF371" s="2"/>
@@ -33956,33 +34138,79 @@
       <c r="AM371" s="2"/>
     </row>
     <row r="372" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A372" s="2"/>
-      <c r="B372" s="2"/>
-      <c r="C372" s="2"/>
-      <c r="D372" s="4"/>
-      <c r="E372" s="2"/>
-      <c r="F372" s="2"/>
-      <c r="G372" s="2"/>
-      <c r="I372" s="2"/>
-      <c r="J372" s="2"/>
-      <c r="K372" s="2"/>
-      <c r="L372" s="2"/>
-      <c r="M372" s="2"/>
-      <c r="N372" s="2"/>
-      <c r="O372" s="2"/>
-      <c r="P372" s="2"/>
-      <c r="Q372" s="2"/>
-      <c r="R372" s="2"/>
-      <c r="T372" s="140"/>
-      <c r="U372" s="140"/>
-      <c r="V372" s="2"/>
-      <c r="W372" s="2"/>
-      <c r="X372" s="2"/>
-      <c r="Y372" s="2"/>
-      <c r="Z372" s="2"/>
-      <c r="AA372" s="2"/>
-      <c r="AB372" s="2"/>
-      <c r="AC372" s="2"/>
+      <c r="A372" s="80"/>
+      <c r="B372" s="80"/>
+      <c r="C372" s="81" t="s">
+        <v>801</v>
+      </c>
+      <c r="D372" s="82">
+        <v>98666001</v>
+      </c>
+      <c r="E372" s="83">
+        <v>3122025618</v>
+      </c>
+      <c r="F372" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G372" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="H372" s="97">
+        <v>8</v>
+      </c>
+      <c r="I372" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J372" s="82">
+        <v>37</v>
+      </c>
+      <c r="K372" s="81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L372" s="75">
+        <v>8</v>
+      </c>
+      <c r="M372" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N372" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O372" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P372" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q372" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="R372" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S372" s="95">
+        <v>1350000</v>
+      </c>
+      <c r="T372" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U372" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V372" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W372" s="80"/>
+      <c r="X372" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y372" s="80"/>
+      <c r="Z372" s="80"/>
+      <c r="AA372" s="80"/>
+      <c r="AB372" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC372" s="80"/>
       <c r="AD372" s="2"/>
       <c r="AE372" s="2"/>
       <c r="AF372" s="2"/>
@@ -33995,33 +34223,79 @@
       <c r="AM372" s="2"/>
     </row>
     <row r="373" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A373" s="2"/>
-      <c r="B373" s="2"/>
-      <c r="C373" s="2"/>
-      <c r="D373" s="4"/>
-      <c r="E373" s="2"/>
-      <c r="F373" s="2"/>
-      <c r="G373" s="2"/>
-      <c r="I373" s="2"/>
-      <c r="J373" s="2"/>
-      <c r="K373" s="2"/>
-      <c r="L373" s="2"/>
-      <c r="M373" s="2"/>
-      <c r="N373" s="2"/>
-      <c r="O373" s="2"/>
-      <c r="P373" s="2"/>
-      <c r="Q373" s="2"/>
-      <c r="R373" s="2"/>
-      <c r="T373" s="140"/>
-      <c r="U373" s="140"/>
-      <c r="V373" s="2"/>
-      <c r="W373" s="2"/>
-      <c r="X373" s="2"/>
-      <c r="Y373" s="2"/>
-      <c r="Z373" s="2"/>
-      <c r="AA373" s="2"/>
-      <c r="AB373" s="2"/>
-      <c r="AC373" s="2"/>
+      <c r="A373" s="80"/>
+      <c r="B373" s="80"/>
+      <c r="C373" s="81" t="s">
+        <v>802</v>
+      </c>
+      <c r="D373" s="82">
+        <v>1039451436</v>
+      </c>
+      <c r="E373" s="83">
+        <v>3105430484</v>
+      </c>
+      <c r="F373" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G373" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="H373" s="97">
+        <v>8</v>
+      </c>
+      <c r="I373" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J373" s="82">
+        <v>26</v>
+      </c>
+      <c r="K373" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="L373" s="75">
+        <v>8</v>
+      </c>
+      <c r="M373" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N373" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O373" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P373" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q373" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="R373" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S373" s="95">
+        <v>644350</v>
+      </c>
+      <c r="T373" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U373" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V373" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W373" s="80"/>
+      <c r="X373" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y373" s="80"/>
+      <c r="Z373" s="80"/>
+      <c r="AA373" s="80"/>
+      <c r="AB373" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC373" s="80"/>
       <c r="AD373" s="2"/>
       <c r="AE373" s="2"/>
       <c r="AF373" s="2"/>
@@ -34034,33 +34308,79 @@
       <c r="AM373" s="2"/>
     </row>
     <row r="374" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A374" s="2"/>
-      <c r="B374" s="2"/>
-      <c r="C374" s="2"/>
-      <c r="D374" s="4"/>
-      <c r="E374" s="2"/>
-      <c r="F374" s="2"/>
-      <c r="G374" s="2"/>
-      <c r="I374" s="2"/>
-      <c r="J374" s="2"/>
-      <c r="K374" s="2"/>
-      <c r="L374" s="2"/>
-      <c r="M374" s="2"/>
-      <c r="N374" s="2"/>
-      <c r="O374" s="2"/>
-      <c r="P374" s="2"/>
-      <c r="Q374" s="2"/>
-      <c r="R374" s="2"/>
-      <c r="T374" s="140"/>
-      <c r="U374" s="140"/>
-      <c r="V374" s="2"/>
-      <c r="W374" s="2"/>
-      <c r="X374" s="2"/>
-      <c r="Y374" s="2"/>
-      <c r="Z374" s="2"/>
-      <c r="AA374" s="2"/>
-      <c r="AB374" s="2"/>
-      <c r="AC374" s="2"/>
+      <c r="A374" s="80"/>
+      <c r="B374" s="80"/>
+      <c r="C374" s="81" t="s">
+        <v>803</v>
+      </c>
+      <c r="D374" s="82">
+        <v>8129744</v>
+      </c>
+      <c r="E374" s="83">
+        <v>2694810</v>
+      </c>
+      <c r="F374" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G374" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="H374" s="97">
+        <v>8</v>
+      </c>
+      <c r="I374" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J374" s="82">
+        <v>31</v>
+      </c>
+      <c r="K374" s="81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L374" s="75">
+        <v>5</v>
+      </c>
+      <c r="M374" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N374" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O374" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P374" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q374" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="R374" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S374" s="149">
+        <v>850000</v>
+      </c>
+      <c r="T374" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U374" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V374" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W374" s="80"/>
+      <c r="X374" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y374" s="80"/>
+      <c r="Z374" s="80"/>
+      <c r="AA374" s="80"/>
+      <c r="AB374" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC374" s="80"/>
       <c r="AD374" s="2"/>
       <c r="AE374" s="2"/>
       <c r="AF374" s="2"/>
@@ -34073,33 +34393,79 @@
       <c r="AM374" s="2"/>
     </row>
     <row r="375" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
-      <c r="C375" s="2"/>
-      <c r="D375" s="4"/>
-      <c r="E375" s="2"/>
-      <c r="F375" s="2"/>
-      <c r="G375" s="2"/>
-      <c r="I375" s="2"/>
-      <c r="J375" s="2"/>
-      <c r="K375" s="2"/>
-      <c r="L375" s="2"/>
-      <c r="M375" s="2"/>
-      <c r="N375" s="2"/>
-      <c r="O375" s="2"/>
-      <c r="P375" s="2"/>
-      <c r="Q375" s="2"/>
-      <c r="R375" s="2"/>
-      <c r="T375" s="140"/>
-      <c r="U375" s="140"/>
-      <c r="V375" s="2"/>
-      <c r="W375" s="2"/>
-      <c r="X375" s="2"/>
-      <c r="Y375" s="2"/>
-      <c r="Z375" s="2"/>
-      <c r="AA375" s="2"/>
-      <c r="AB375" s="2"/>
-      <c r="AC375" s="2"/>
+      <c r="A375" s="80"/>
+      <c r="B375" s="80"/>
+      <c r="C375" s="81" t="s">
+        <v>804</v>
+      </c>
+      <c r="D375" s="82">
+        <v>1037628283</v>
+      </c>
+      <c r="E375" s="83">
+        <v>2220028</v>
+      </c>
+      <c r="F375" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G375" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="H375" s="97">
+        <v>8</v>
+      </c>
+      <c r="I375" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J375" s="82">
+        <v>22</v>
+      </c>
+      <c r="K375" s="81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L375" s="75">
+        <v>11</v>
+      </c>
+      <c r="M375" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N375" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O375" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P375" s="81" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q375" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="R375" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S375" s="95">
+        <v>644350</v>
+      </c>
+      <c r="T375" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U375" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V375" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W375" s="80"/>
+      <c r="X375" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y375" s="80"/>
+      <c r="Z375" s="80"/>
+      <c r="AA375" s="80"/>
+      <c r="AB375" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC375" s="80"/>
       <c r="AD375" s="2"/>
       <c r="AE375" s="2"/>
       <c r="AF375" s="2"/>
@@ -34112,33 +34478,79 @@
       <c r="AM375" s="2"/>
     </row>
     <row r="376" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A376" s="2"/>
-      <c r="B376" s="2"/>
-      <c r="C376" s="2"/>
-      <c r="D376" s="4"/>
-      <c r="E376" s="2"/>
-      <c r="F376" s="2"/>
-      <c r="G376" s="2"/>
-      <c r="I376" s="2"/>
-      <c r="J376" s="2"/>
-      <c r="K376" s="2"/>
-      <c r="L376" s="2"/>
-      <c r="M376" s="2"/>
-      <c r="N376" s="2"/>
-      <c r="O376" s="2"/>
-      <c r="P376" s="2"/>
-      <c r="Q376" s="2"/>
-      <c r="R376" s="2"/>
-      <c r="T376" s="140"/>
-      <c r="U376" s="140"/>
-      <c r="V376" s="2"/>
-      <c r="W376" s="2"/>
-      <c r="X376" s="2"/>
-      <c r="Y376" s="2"/>
-      <c r="Z376" s="2"/>
-      <c r="AA376" s="2"/>
-      <c r="AB376" s="2"/>
-      <c r="AC376" s="2"/>
+      <c r="A376" s="80"/>
+      <c r="B376" s="80"/>
+      <c r="C376" s="81" t="s">
+        <v>805</v>
+      </c>
+      <c r="D376" s="82">
+        <v>6705165</v>
+      </c>
+      <c r="E376" s="83">
+        <v>3218399545</v>
+      </c>
+      <c r="F376" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G376" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="H376" s="97">
+        <v>8</v>
+      </c>
+      <c r="I376" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J376" s="82">
+        <v>56</v>
+      </c>
+      <c r="K376" s="81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L376" s="75">
+        <v>5</v>
+      </c>
+      <c r="M376" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N376" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O376" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P376" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q376" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="R376" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S376" s="95">
+        <v>1350000</v>
+      </c>
+      <c r="T376" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U376" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V376" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W376" s="80"/>
+      <c r="X376" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y376" s="80"/>
+      <c r="Z376" s="80"/>
+      <c r="AA376" s="80"/>
+      <c r="AB376" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC376" s="80"/>
       <c r="AD376" s="2"/>
       <c r="AE376" s="2"/>
       <c r="AF376" s="2"/>
@@ -34151,33 +34563,79 @@
       <c r="AM376" s="2"/>
     </row>
     <row r="377" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A377" s="2"/>
-      <c r="B377" s="2"/>
-      <c r="C377" s="2"/>
-      <c r="D377" s="4"/>
-      <c r="E377" s="2"/>
-      <c r="F377" s="2"/>
-      <c r="G377" s="2"/>
-      <c r="I377" s="2"/>
-      <c r="J377" s="2"/>
-      <c r="K377" s="2"/>
-      <c r="L377" s="2"/>
-      <c r="M377" s="2"/>
-      <c r="N377" s="2"/>
-      <c r="O377" s="2"/>
-      <c r="P377" s="2"/>
-      <c r="Q377" s="2"/>
-      <c r="R377" s="2"/>
-      <c r="T377" s="140"/>
-      <c r="U377" s="140"/>
-      <c r="V377" s="2"/>
-      <c r="W377" s="2"/>
-      <c r="X377" s="2"/>
-      <c r="Y377" s="2"/>
-      <c r="Z377" s="2"/>
-      <c r="AA377" s="2"/>
-      <c r="AB377" s="2"/>
-      <c r="AC377" s="2"/>
+      <c r="A377" s="80"/>
+      <c r="B377" s="80"/>
+      <c r="C377" s="81" t="s">
+        <v>806</v>
+      </c>
+      <c r="D377" s="82">
+        <v>1216715108</v>
+      </c>
+      <c r="E377" s="83">
+        <v>3225777255</v>
+      </c>
+      <c r="F377" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G377" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="H377" s="97">
+        <v>8</v>
+      </c>
+      <c r="I377" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J377" s="82">
+        <v>21</v>
+      </c>
+      <c r="K377" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="L377" s="75">
+        <v>11</v>
+      </c>
+      <c r="M377" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="N377" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O377" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P377" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q377" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="R377" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S377" s="95">
+        <v>644350</v>
+      </c>
+      <c r="T377" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U377" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V377" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W377" s="80"/>
+      <c r="X377" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y377" s="80"/>
+      <c r="Z377" s="80"/>
+      <c r="AA377" s="80"/>
+      <c r="AB377" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC377" s="80"/>
       <c r="AD377" s="2"/>
       <c r="AE377" s="2"/>
       <c r="AF377" s="2"/>
@@ -34190,33 +34648,79 @@
       <c r="AM377" s="2"/>
     </row>
     <row r="378" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A378" s="2"/>
-      <c r="B378" s="2"/>
-      <c r="C378" s="2"/>
-      <c r="D378" s="4"/>
-      <c r="E378" s="2"/>
-      <c r="F378" s="2"/>
-      <c r="G378" s="2"/>
-      <c r="I378" s="2"/>
-      <c r="J378" s="2"/>
-      <c r="K378" s="2"/>
-      <c r="L378" s="2"/>
-      <c r="M378" s="2"/>
-      <c r="N378" s="2"/>
-      <c r="O378" s="2"/>
-      <c r="P378" s="2"/>
-      <c r="Q378" s="2"/>
-      <c r="R378" s="2"/>
-      <c r="T378" s="140"/>
-      <c r="U378" s="140"/>
-      <c r="V378" s="2"/>
-      <c r="W378" s="2"/>
-      <c r="X378" s="2"/>
-      <c r="Y378" s="2"/>
-      <c r="Z378" s="2"/>
-      <c r="AA378" s="2"/>
-      <c r="AB378" s="2"/>
-      <c r="AC378" s="2"/>
+      <c r="A378" s="80"/>
+      <c r="B378" s="80"/>
+      <c r="C378" s="81" t="s">
+        <v>807</v>
+      </c>
+      <c r="D378" s="82">
+        <v>1038439387</v>
+      </c>
+      <c r="E378" s="83">
+        <v>3137290291</v>
+      </c>
+      <c r="F378" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G378" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="H378" s="97">
+        <v>8</v>
+      </c>
+      <c r="I378" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J378" s="82">
+        <v>26</v>
+      </c>
+      <c r="K378" s="81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L378" s="75">
+        <v>5</v>
+      </c>
+      <c r="M378" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N378" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O378" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P378" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q378" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="R378" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S378" s="95">
+        <v>644350</v>
+      </c>
+      <c r="T378" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U378" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V378" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W378" s="80"/>
+      <c r="X378" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y378" s="80"/>
+      <c r="Z378" s="80"/>
+      <c r="AA378" s="80"/>
+      <c r="AB378" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC378" s="80"/>
       <c r="AD378" s="2"/>
       <c r="AE378" s="2"/>
       <c r="AF378" s="2"/>
@@ -34229,33 +34733,79 @@
       <c r="AM378" s="2"/>
     </row>
     <row r="379" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A379" s="2"/>
-      <c r="B379" s="2"/>
-      <c r="C379" s="2"/>
-      <c r="D379" s="4"/>
-      <c r="E379" s="2"/>
-      <c r="F379" s="2"/>
-      <c r="G379" s="2"/>
-      <c r="I379" s="2"/>
-      <c r="J379" s="2"/>
-      <c r="K379" s="2"/>
-      <c r="L379" s="2"/>
-      <c r="M379" s="2"/>
-      <c r="N379" s="2"/>
-      <c r="O379" s="2"/>
-      <c r="P379" s="2"/>
-      <c r="Q379" s="2"/>
-      <c r="R379" s="2"/>
-      <c r="T379" s="140"/>
-      <c r="U379" s="140"/>
-      <c r="V379" s="2"/>
-      <c r="W379" s="2"/>
-      <c r="X379" s="2"/>
-      <c r="Y379" s="2"/>
-      <c r="Z379" s="2"/>
-      <c r="AA379" s="2"/>
-      <c r="AB379" s="2"/>
-      <c r="AC379" s="2"/>
+      <c r="A379" s="80"/>
+      <c r="B379" s="80"/>
+      <c r="C379" s="81" t="s">
+        <v>808</v>
+      </c>
+      <c r="D379" s="82">
+        <v>1047994652</v>
+      </c>
+      <c r="E379" s="83">
+        <v>3122621976</v>
+      </c>
+      <c r="F379" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G379" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="H379" s="97">
+        <v>8</v>
+      </c>
+      <c r="I379" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J379" s="82">
+        <v>27</v>
+      </c>
+      <c r="K379" s="81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L379" s="75">
+        <v>8</v>
+      </c>
+      <c r="M379" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N379" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O379" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P379" s="81" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q379" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="R379" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S379" s="95">
+        <v>644350</v>
+      </c>
+      <c r="T379" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U379" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V379" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W379" s="80"/>
+      <c r="X379" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y379" s="80"/>
+      <c r="Z379" s="80"/>
+      <c r="AA379" s="80"/>
+      <c r="AB379" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC379" s="80"/>
       <c r="AD379" s="2"/>
       <c r="AE379" s="2"/>
       <c r="AF379" s="2"/>
@@ -34268,33 +34818,79 @@
       <c r="AM379" s="2"/>
     </row>
     <row r="380" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A380" s="2"/>
-      <c r="B380" s="2"/>
-      <c r="C380" s="2"/>
-      <c r="D380" s="4"/>
-      <c r="E380" s="2"/>
-      <c r="F380" s="2"/>
-      <c r="G380" s="2"/>
-      <c r="I380" s="2"/>
-      <c r="J380" s="2"/>
-      <c r="K380" s="2"/>
-      <c r="L380" s="2"/>
-      <c r="M380" s="2"/>
-      <c r="N380" s="2"/>
-      <c r="O380" s="2"/>
-      <c r="P380" s="2"/>
-      <c r="Q380" s="2"/>
-      <c r="R380" s="2"/>
-      <c r="T380" s="140"/>
-      <c r="U380" s="140"/>
-      <c r="V380" s="2"/>
-      <c r="W380" s="2"/>
-      <c r="X380" s="2"/>
-      <c r="Y380" s="2"/>
-      <c r="Z380" s="2"/>
-      <c r="AA380" s="2"/>
-      <c r="AB380" s="2"/>
-      <c r="AC380" s="2"/>
+      <c r="A380" s="80"/>
+      <c r="B380" s="80"/>
+      <c r="C380" s="81" t="s">
+        <v>809</v>
+      </c>
+      <c r="D380" s="82">
+        <v>43323698</v>
+      </c>
+      <c r="E380" s="83">
+        <v>2227809</v>
+      </c>
+      <c r="F380" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G380" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="H380" s="97">
+        <v>8</v>
+      </c>
+      <c r="I380" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J380" s="82">
+        <v>31</v>
+      </c>
+      <c r="K380" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="L380" s="75">
+        <v>7</v>
+      </c>
+      <c r="M380" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N380" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O380" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P380" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q380" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="R380" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S380" s="95">
+        <v>644350</v>
+      </c>
+      <c r="T380" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U380" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V380" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W380" s="80"/>
+      <c r="X380" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y380" s="80"/>
+      <c r="Z380" s="80"/>
+      <c r="AA380" s="80"/>
+      <c r="AB380" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC380" s="80"/>
       <c r="AD380" s="2"/>
       <c r="AE380" s="2"/>
       <c r="AF380" s="2"/>
@@ -34307,33 +34903,79 @@
       <c r="AM380" s="2"/>
     </row>
     <row r="381" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A381" s="2"/>
-      <c r="B381" s="2"/>
-      <c r="C381" s="2"/>
-      <c r="D381" s="4"/>
-      <c r="E381" s="2"/>
-      <c r="F381" s="2"/>
-      <c r="G381" s="2"/>
-      <c r="I381" s="2"/>
-      <c r="J381" s="2"/>
-      <c r="K381" s="2"/>
-      <c r="L381" s="2"/>
-      <c r="M381" s="2"/>
-      <c r="N381" s="2"/>
-      <c r="O381" s="2"/>
-      <c r="P381" s="2"/>
-      <c r="Q381" s="2"/>
-      <c r="R381" s="2"/>
-      <c r="T381" s="140"/>
-      <c r="U381" s="140"/>
-      <c r="V381" s="2"/>
-      <c r="W381" s="2"/>
-      <c r="X381" s="2"/>
-      <c r="Y381" s="2"/>
-      <c r="Z381" s="2"/>
-      <c r="AA381" s="2"/>
-      <c r="AB381" s="2"/>
-      <c r="AC381" s="2"/>
+      <c r="A381" s="80"/>
+      <c r="B381" s="80"/>
+      <c r="C381" s="81" t="s">
+        <v>810</v>
+      </c>
+      <c r="D381" s="82">
+        <v>1001404907</v>
+      </c>
+      <c r="E381" s="83">
+        <v>3206137269</v>
+      </c>
+      <c r="F381" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G381" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="H381" s="97">
+        <v>8</v>
+      </c>
+      <c r="I381" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J381" s="82">
+        <v>21</v>
+      </c>
+      <c r="K381" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="L381" s="75">
+        <v>10</v>
+      </c>
+      <c r="M381" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N381" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O381" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P381" s="81" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q381" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="R381" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S381" s="95">
+        <v>644350</v>
+      </c>
+      <c r="T381" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U381" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V381" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W381" s="80"/>
+      <c r="X381" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y381" s="80"/>
+      <c r="Z381" s="80"/>
+      <c r="AA381" s="80"/>
+      <c r="AB381" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC381" s="80"/>
       <c r="AD381" s="2"/>
       <c r="AE381" s="2"/>
       <c r="AF381" s="2"/>
@@ -34346,33 +34988,79 @@
       <c r="AM381" s="2"/>
     </row>
     <row r="382" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A382" s="2"/>
-      <c r="B382" s="2"/>
-      <c r="C382" s="2"/>
-      <c r="D382" s="4"/>
-      <c r="E382" s="2"/>
-      <c r="F382" s="2"/>
-      <c r="G382" s="2"/>
-      <c r="I382" s="2"/>
-      <c r="J382" s="2"/>
-      <c r="K382" s="2"/>
-      <c r="L382" s="2"/>
-      <c r="M382" s="2"/>
-      <c r="N382" s="2"/>
-      <c r="O382" s="2"/>
-      <c r="P382" s="2"/>
-      <c r="Q382" s="2"/>
-      <c r="R382" s="2"/>
-      <c r="T382" s="140"/>
-      <c r="U382" s="140"/>
-      <c r="V382" s="2"/>
-      <c r="W382" s="2"/>
-      <c r="X382" s="2"/>
-      <c r="Y382" s="2"/>
-      <c r="Z382" s="2"/>
-      <c r="AA382" s="2"/>
-      <c r="AB382" s="2"/>
-      <c r="AC382" s="2"/>
+      <c r="A382" s="80"/>
+      <c r="B382" s="80"/>
+      <c r="C382" s="81" t="s">
+        <v>811</v>
+      </c>
+      <c r="D382" s="82">
+        <v>44003739</v>
+      </c>
+      <c r="E382" s="83">
+        <v>3206105101</v>
+      </c>
+      <c r="F382" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G382" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="H382" s="97">
+        <v>8</v>
+      </c>
+      <c r="I382" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J382" s="82">
+        <v>30</v>
+      </c>
+      <c r="K382" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="L382" s="75">
+        <v>11</v>
+      </c>
+      <c r="M382" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N382" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O382" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P382" s="81" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q382" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="R382" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S382" s="95">
+        <v>644350</v>
+      </c>
+      <c r="T382" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U382" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V382" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W382" s="80"/>
+      <c r="X382" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y382" s="80"/>
+      <c r="Z382" s="80"/>
+      <c r="AA382" s="80"/>
+      <c r="AB382" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC382" s="80"/>
       <c r="AD382" s="2"/>
       <c r="AE382" s="2"/>
       <c r="AF382" s="2"/>
@@ -34385,33 +35073,79 @@
       <c r="AM382" s="2"/>
     </row>
     <row r="383" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A383" s="2"/>
-      <c r="B383" s="2"/>
-      <c r="C383" s="2"/>
-      <c r="D383" s="4"/>
-      <c r="E383" s="2"/>
-      <c r="F383" s="2"/>
-      <c r="G383" s="2"/>
-      <c r="I383" s="2"/>
-      <c r="J383" s="2"/>
-      <c r="K383" s="2"/>
-      <c r="L383" s="2"/>
-      <c r="M383" s="2"/>
-      <c r="N383" s="2"/>
-      <c r="O383" s="2"/>
-      <c r="P383" s="2"/>
-      <c r="Q383" s="2"/>
-      <c r="R383" s="2"/>
-      <c r="T383" s="140"/>
-      <c r="U383" s="140"/>
-      <c r="V383" s="2"/>
-      <c r="W383" s="2"/>
-      <c r="X383" s="2"/>
-      <c r="Y383" s="2"/>
-      <c r="Z383" s="2"/>
-      <c r="AA383" s="2"/>
-      <c r="AB383" s="2"/>
-      <c r="AC383" s="2"/>
+      <c r="A383" s="80"/>
+      <c r="B383" s="80"/>
+      <c r="C383" s="81" t="s">
+        <v>812</v>
+      </c>
+      <c r="D383" s="82">
+        <v>43261251</v>
+      </c>
+      <c r="E383" s="83">
+        <v>3137230045</v>
+      </c>
+      <c r="F383" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G383" s="73" t="s">
+        <v>228</v>
+      </c>
+      <c r="H383" s="97">
+        <v>8</v>
+      </c>
+      <c r="I383" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J383" s="82">
+        <v>36</v>
+      </c>
+      <c r="K383" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="L383" s="75">
+        <v>6</v>
+      </c>
+      <c r="M383" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N383" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O383" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P383" s="81" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q383" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="R383" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S383" s="95">
+        <v>644350</v>
+      </c>
+      <c r="T383" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U383" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V383" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W383" s="80"/>
+      <c r="X383" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y383" s="80"/>
+      <c r="Z383" s="80"/>
+      <c r="AA383" s="80"/>
+      <c r="AB383" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC383" s="80"/>
       <c r="AD383" s="2"/>
       <c r="AE383" s="2"/>
       <c r="AF383" s="2"/>
@@ -34424,33 +35158,79 @@
       <c r="AM383" s="2"/>
     </row>
     <row r="384" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A384" s="2"/>
-      <c r="B384" s="2"/>
-      <c r="C384" s="2"/>
-      <c r="D384" s="4"/>
-      <c r="E384" s="2"/>
-      <c r="F384" s="2"/>
-      <c r="G384" s="2"/>
-      <c r="I384" s="2"/>
-      <c r="J384" s="2"/>
-      <c r="K384" s="2"/>
-      <c r="L384" s="2"/>
-      <c r="M384" s="2"/>
-      <c r="N384" s="2"/>
-      <c r="O384" s="2"/>
-      <c r="P384" s="2"/>
-      <c r="Q384" s="2"/>
-      <c r="R384" s="2"/>
-      <c r="T384" s="140"/>
-      <c r="U384" s="140"/>
-      <c r="V384" s="2"/>
-      <c r="W384" s="2"/>
-      <c r="X384" s="2"/>
-      <c r="Y384" s="2"/>
-      <c r="Z384" s="2"/>
-      <c r="AA384" s="2"/>
-      <c r="AB384" s="2"/>
-      <c r="AC384" s="2"/>
+      <c r="A384" s="80"/>
+      <c r="B384" s="80"/>
+      <c r="C384" s="81" t="s">
+        <v>813</v>
+      </c>
+      <c r="D384" s="82">
+        <v>1045433122</v>
+      </c>
+      <c r="E384" s="83">
+        <v>3015651370</v>
+      </c>
+      <c r="F384" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G384" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="H384" s="97">
+        <v>8</v>
+      </c>
+      <c r="I384" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J384" s="82">
+        <v>24</v>
+      </c>
+      <c r="K384" s="81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L384" s="75">
+        <v>7</v>
+      </c>
+      <c r="M384" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N384" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O384" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P384" s="81" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q384" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="R384" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S384" s="149">
+        <v>850000</v>
+      </c>
+      <c r="T384" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U384" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V384" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W384" s="80"/>
+      <c r="X384" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y384" s="80"/>
+      <c r="Z384" s="80"/>
+      <c r="AA384" s="80"/>
+      <c r="AB384" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC384" s="80"/>
       <c r="AD384" s="2"/>
       <c r="AE384" s="2"/>
       <c r="AF384" s="2"/>
@@ -34463,33 +35243,79 @@
       <c r="AM384" s="2"/>
     </row>
     <row r="385" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A385" s="2"/>
-      <c r="B385" s="2"/>
-      <c r="C385" s="2"/>
-      <c r="D385" s="4"/>
-      <c r="E385" s="2"/>
-      <c r="F385" s="2"/>
-      <c r="G385" s="2"/>
-      <c r="I385" s="2"/>
-      <c r="J385" s="2"/>
-      <c r="K385" s="2"/>
-      <c r="L385" s="2"/>
-      <c r="M385" s="2"/>
-      <c r="N385" s="2"/>
-      <c r="O385" s="2"/>
-      <c r="P385" s="2"/>
-      <c r="Q385" s="2"/>
-      <c r="R385" s="2"/>
-      <c r="T385" s="140"/>
-      <c r="U385" s="140"/>
-      <c r="V385" s="2"/>
-      <c r="W385" s="2"/>
-      <c r="X385" s="2"/>
-      <c r="Y385" s="2"/>
-      <c r="Z385" s="2"/>
-      <c r="AA385" s="2"/>
-      <c r="AB385" s="2"/>
-      <c r="AC385" s="2"/>
+      <c r="A385" s="80"/>
+      <c r="B385" s="80"/>
+      <c r="C385" s="81" t="s">
+        <v>814</v>
+      </c>
+      <c r="D385" s="82">
+        <v>1152691107</v>
+      </c>
+      <c r="E385" s="83">
+        <v>3008419418</v>
+      </c>
+      <c r="F385" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G385" s="73" t="s">
+        <v>637</v>
+      </c>
+      <c r="H385" s="97">
+        <v>6</v>
+      </c>
+      <c r="I385" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J385" s="82">
+        <v>22</v>
+      </c>
+      <c r="K385" s="81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L385" s="148" t="s">
+        <v>108</v>
+      </c>
+      <c r="M385" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N385" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O385" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P385" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q385" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="R385" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S385" s="149">
+        <v>850000</v>
+      </c>
+      <c r="T385" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U385" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V385" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W385" s="80"/>
+      <c r="X385" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y385" s="80"/>
+      <c r="Z385" s="80"/>
+      <c r="AA385" s="80"/>
+      <c r="AB385" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC385" s="80"/>
       <c r="AD385" s="2"/>
       <c r="AE385" s="2"/>
       <c r="AF385" s="2"/>
@@ -34502,33 +35328,79 @@
       <c r="AM385" s="2"/>
     </row>
     <row r="386" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A386" s="2"/>
-      <c r="B386" s="2"/>
-      <c r="C386" s="2"/>
-      <c r="D386" s="4"/>
-      <c r="E386" s="2"/>
-      <c r="F386" s="2"/>
-      <c r="G386" s="2"/>
-      <c r="I386" s="2"/>
-      <c r="J386" s="2"/>
-      <c r="K386" s="2"/>
-      <c r="L386" s="2"/>
-      <c r="M386" s="2"/>
-      <c r="N386" s="2"/>
-      <c r="O386" s="2"/>
-      <c r="P386" s="2"/>
-      <c r="Q386" s="2"/>
-      <c r="R386" s="2"/>
-      <c r="T386" s="140"/>
-      <c r="U386" s="140"/>
-      <c r="V386" s="2"/>
-      <c r="W386" s="2"/>
-      <c r="X386" s="2"/>
-      <c r="Y386" s="2"/>
-      <c r="Z386" s="2"/>
-      <c r="AA386" s="2"/>
-      <c r="AB386" s="2"/>
-      <c r="AC386" s="2"/>
+      <c r="A386" s="80"/>
+      <c r="B386" s="80"/>
+      <c r="C386" s="81" t="s">
+        <v>815</v>
+      </c>
+      <c r="D386" s="82">
+        <v>1020768628</v>
+      </c>
+      <c r="E386" s="83">
+        <v>3123024891</v>
+      </c>
+      <c r="F386" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G386" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="H386" s="97">
+        <v>8</v>
+      </c>
+      <c r="I386" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J386" s="82">
+        <v>24</v>
+      </c>
+      <c r="K386" s="81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L386" s="75">
+        <v>11</v>
+      </c>
+      <c r="M386" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N386" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O386" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P386" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q386" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="R386" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S386" s="149">
+        <v>850000</v>
+      </c>
+      <c r="T386" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U386" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V386" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W386" s="80"/>
+      <c r="X386" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y386" s="80"/>
+      <c r="Z386" s="80"/>
+      <c r="AA386" s="80"/>
+      <c r="AB386" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC386" s="80"/>
       <c r="AD386" s="2"/>
       <c r="AE386" s="2"/>
       <c r="AF386" s="2"/>
@@ -34541,33 +35413,79 @@
       <c r="AM386" s="2"/>
     </row>
     <row r="387" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A387" s="2"/>
-      <c r="B387" s="2"/>
-      <c r="C387" s="2"/>
-      <c r="D387" s="4"/>
-      <c r="E387" s="2"/>
-      <c r="F387" s="2"/>
-      <c r="G387" s="2"/>
-      <c r="I387" s="2"/>
-      <c r="J387" s="2"/>
-      <c r="K387" s="2"/>
-      <c r="L387" s="2"/>
-      <c r="M387" s="2"/>
-      <c r="N387" s="2"/>
-      <c r="O387" s="2"/>
-      <c r="P387" s="2"/>
-      <c r="Q387" s="2"/>
-      <c r="R387" s="2"/>
-      <c r="T387" s="140"/>
-      <c r="U387" s="140"/>
-      <c r="V387" s="2"/>
-      <c r="W387" s="2"/>
-      <c r="X387" s="2"/>
-      <c r="Y387" s="2"/>
-      <c r="Z387" s="2"/>
-      <c r="AA387" s="2"/>
-      <c r="AB387" s="2"/>
-      <c r="AC387" s="2"/>
+      <c r="A387" s="80"/>
+      <c r="B387" s="80"/>
+      <c r="C387" s="81" t="s">
+        <v>816</v>
+      </c>
+      <c r="D387" s="82">
+        <v>1148205663</v>
+      </c>
+      <c r="E387" s="83">
+        <v>3156652178</v>
+      </c>
+      <c r="F387" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G387" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="H387" s="97">
+        <v>8</v>
+      </c>
+      <c r="I387" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J387" s="82">
+        <v>20</v>
+      </c>
+      <c r="K387" s="81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L387" s="75">
+        <v>7</v>
+      </c>
+      <c r="M387" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N387" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O387" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P387" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q387" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="R387" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S387" s="149">
+        <v>850000</v>
+      </c>
+      <c r="T387" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U387" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V387" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W387" s="80"/>
+      <c r="X387" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y387" s="80"/>
+      <c r="Z387" s="80"/>
+      <c r="AA387" s="80"/>
+      <c r="AB387" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC387" s="80"/>
       <c r="AD387" s="2"/>
       <c r="AE387" s="2"/>
       <c r="AF387" s="2"/>
@@ -34580,33 +35498,79 @@
       <c r="AM387" s="2"/>
     </row>
     <row r="388" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A388" s="2"/>
-      <c r="B388" s="2"/>
-      <c r="C388" s="2"/>
-      <c r="D388" s="4"/>
-      <c r="E388" s="2"/>
-      <c r="F388" s="2"/>
-      <c r="G388" s="2"/>
-      <c r="I388" s="2"/>
-      <c r="J388" s="2"/>
-      <c r="K388" s="2"/>
-      <c r="L388" s="2"/>
-      <c r="M388" s="2"/>
-      <c r="N388" s="2"/>
-      <c r="O388" s="2"/>
-      <c r="P388" s="2"/>
-      <c r="Q388" s="2"/>
-      <c r="R388" s="2"/>
-      <c r="T388" s="140"/>
-      <c r="U388" s="140"/>
-      <c r="V388" s="2"/>
-      <c r="W388" s="2"/>
-      <c r="X388" s="2"/>
-      <c r="Y388" s="2"/>
-      <c r="Z388" s="2"/>
-      <c r="AA388" s="2"/>
-      <c r="AB388" s="2"/>
-      <c r="AC388" s="2"/>
+      <c r="A388" s="80"/>
+      <c r="B388" s="80"/>
+      <c r="C388" s="81" t="s">
+        <v>817</v>
+      </c>
+      <c r="D388" s="82">
+        <v>42976722</v>
+      </c>
+      <c r="E388" s="83">
+        <v>2261246</v>
+      </c>
+      <c r="F388" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G388" s="73" t="s">
+        <v>818</v>
+      </c>
+      <c r="H388" s="97">
+        <v>8</v>
+      </c>
+      <c r="I388" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J388" s="82">
+        <v>55</v>
+      </c>
+      <c r="K388" s="81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L388" s="75">
+        <v>1</v>
+      </c>
+      <c r="M388" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N388" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O388" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P388" s="81" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q388" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="R388" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S388" s="95">
+        <v>644350</v>
+      </c>
+      <c r="T388" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U388" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V388" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W388" s="80"/>
+      <c r="X388" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y388" s="80"/>
+      <c r="Z388" s="80"/>
+      <c r="AA388" s="80"/>
+      <c r="AB388" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC388" s="80"/>
       <c r="AD388" s="2"/>
       <c r="AE388" s="2"/>
       <c r="AF388" s="2"/>
@@ -34619,33 +35583,79 @@
       <c r="AM388" s="2"/>
     </row>
     <row r="389" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A389" s="2"/>
-      <c r="B389" s="2"/>
-      <c r="C389" s="2"/>
-      <c r="D389" s="4"/>
-      <c r="E389" s="2"/>
-      <c r="F389" s="2"/>
-      <c r="G389" s="2"/>
-      <c r="I389" s="2"/>
-      <c r="J389" s="2"/>
-      <c r="K389" s="2"/>
-      <c r="L389" s="2"/>
-      <c r="M389" s="2"/>
-      <c r="N389" s="2"/>
-      <c r="O389" s="2"/>
-      <c r="P389" s="2"/>
-      <c r="Q389" s="2"/>
-      <c r="R389" s="2"/>
-      <c r="T389" s="140"/>
-      <c r="U389" s="140"/>
-      <c r="V389" s="2"/>
-      <c r="W389" s="2"/>
-      <c r="X389" s="2"/>
-      <c r="Y389" s="2"/>
-      <c r="Z389" s="2"/>
-      <c r="AA389" s="2"/>
-      <c r="AB389" s="2"/>
-      <c r="AC389" s="2"/>
+      <c r="A389" s="80"/>
+      <c r="B389" s="80"/>
+      <c r="C389" s="81" t="s">
+        <v>819</v>
+      </c>
+      <c r="D389" s="82">
+        <v>1025645514</v>
+      </c>
+      <c r="E389" s="83">
+        <v>2210079</v>
+      </c>
+      <c r="F389" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G389" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="H389" s="97">
+        <v>8</v>
+      </c>
+      <c r="I389" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J389" s="82">
+        <v>27</v>
+      </c>
+      <c r="K389" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="L389" s="75">
+        <v>5</v>
+      </c>
+      <c r="M389" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="N389" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O389" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P389" s="81" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q389" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="R389" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S389" s="95">
+        <v>644350</v>
+      </c>
+      <c r="T389" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U389" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V389" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W389" s="80"/>
+      <c r="X389" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y389" s="80"/>
+      <c r="Z389" s="80"/>
+      <c r="AA389" s="80"/>
+      <c r="AB389" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC389" s="80"/>
       <c r="AD389" s="2"/>
       <c r="AE389" s="2"/>
       <c r="AF389" s="2"/>
@@ -34658,33 +35668,79 @@
       <c r="AM389" s="2"/>
     </row>
     <row r="390" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A390" s="2"/>
-      <c r="B390" s="2"/>
-      <c r="C390" s="2"/>
-      <c r="D390" s="4"/>
-      <c r="E390" s="2"/>
-      <c r="F390" s="2"/>
-      <c r="G390" s="2"/>
-      <c r="I390" s="2"/>
-      <c r="J390" s="2"/>
-      <c r="K390" s="2"/>
-      <c r="L390" s="2"/>
-      <c r="M390" s="2"/>
-      <c r="N390" s="2"/>
-      <c r="O390" s="2"/>
-      <c r="P390" s="2"/>
-      <c r="Q390" s="2"/>
-      <c r="R390" s="2"/>
-      <c r="T390" s="140"/>
-      <c r="U390" s="140"/>
-      <c r="V390" s="2"/>
-      <c r="W390" s="2"/>
-      <c r="X390" s="2"/>
-      <c r="Y390" s="2"/>
-      <c r="Z390" s="2"/>
-      <c r="AA390" s="2"/>
-      <c r="AB390" s="2"/>
-      <c r="AC390" s="2"/>
+      <c r="A390" s="80"/>
+      <c r="B390" s="80"/>
+      <c r="C390" s="81" t="s">
+        <v>820</v>
+      </c>
+      <c r="D390" s="82">
+        <v>9736115</v>
+      </c>
+      <c r="E390" s="83">
+        <v>3186965357</v>
+      </c>
+      <c r="F390" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G390" s="73" t="s">
+        <v>637</v>
+      </c>
+      <c r="H390" s="97">
+        <v>8</v>
+      </c>
+      <c r="I390" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J390" s="82">
+        <v>32</v>
+      </c>
+      <c r="K390" s="81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L390" s="75">
+        <v>10</v>
+      </c>
+      <c r="M390" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N390" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O390" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P390" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q390" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="R390" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S390" s="149">
+        <v>850000</v>
+      </c>
+      <c r="T390" s="146">
+        <v>42298</v>
+      </c>
+      <c r="U390" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V390" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W390" s="80"/>
+      <c r="X390" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y390" s="80"/>
+      <c r="Z390" s="80"/>
+      <c r="AA390" s="80"/>
+      <c r="AB390" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC390" s="80"/>
       <c r="AD390" s="2"/>
       <c r="AE390" s="2"/>
       <c r="AF390" s="2"/>
@@ -34697,33 +35753,79 @@
       <c r="AM390" s="2"/>
     </row>
     <row r="391" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A391" s="2"/>
-      <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
-      <c r="D391" s="4"/>
-      <c r="E391" s="2"/>
-      <c r="F391" s="2"/>
-      <c r="G391" s="2"/>
-      <c r="I391" s="2"/>
-      <c r="J391" s="2"/>
-      <c r="K391" s="2"/>
-      <c r="L391" s="2"/>
-      <c r="M391" s="2"/>
-      <c r="N391" s="2"/>
-      <c r="O391" s="2"/>
-      <c r="P391" s="2"/>
-      <c r="Q391" s="2"/>
-      <c r="R391" s="2"/>
-      <c r="T391" s="140"/>
-      <c r="U391" s="140"/>
-      <c r="V391" s="2"/>
-      <c r="W391" s="2"/>
-      <c r="X391" s="2"/>
-      <c r="Y391" s="2"/>
-      <c r="Z391" s="2"/>
-      <c r="AA391" s="2"/>
-      <c r="AB391" s="2"/>
-      <c r="AC391" s="2"/>
+      <c r="A391" s="80"/>
+      <c r="B391" s="80"/>
+      <c r="C391" s="81" t="s">
+        <v>821</v>
+      </c>
+      <c r="D391" s="82">
+        <v>1017233900</v>
+      </c>
+      <c r="E391" s="83">
+        <v>3137343701</v>
+      </c>
+      <c r="F391" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G391" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="H391" s="97">
+        <v>8</v>
+      </c>
+      <c r="I391" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J391" s="82">
+        <v>20</v>
+      </c>
+      <c r="K391" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="L391" s="148" t="s">
+        <v>108</v>
+      </c>
+      <c r="M391" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="N391" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O391" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P391" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q391" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="R391" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S391" s="149">
+        <v>850000</v>
+      </c>
+      <c r="T391" s="146">
+        <v>42299</v>
+      </c>
+      <c r="U391" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V391" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W391" s="80"/>
+      <c r="X391" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y391" s="80"/>
+      <c r="Z391" s="80"/>
+      <c r="AA391" s="80"/>
+      <c r="AB391" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC391" s="80"/>
       <c r="AD391" s="2"/>
       <c r="AE391" s="2"/>
       <c r="AF391" s="2"/>
@@ -34736,33 +35838,79 @@
       <c r="AM391" s="2"/>
     </row>
     <row r="392" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A392" s="2"/>
-      <c r="B392" s="2"/>
-      <c r="C392" s="2"/>
-      <c r="D392" s="4"/>
-      <c r="E392" s="2"/>
-      <c r="F392" s="2"/>
-      <c r="G392" s="2"/>
-      <c r="I392" s="2"/>
-      <c r="J392" s="2"/>
-      <c r="K392" s="2"/>
-      <c r="L392" s="2"/>
-      <c r="M392" s="2"/>
-      <c r="N392" s="2"/>
-      <c r="O392" s="2"/>
-      <c r="P392" s="2"/>
-      <c r="Q392" s="2"/>
-      <c r="R392" s="2"/>
-      <c r="T392" s="140"/>
-      <c r="U392" s="140"/>
-      <c r="V392" s="2"/>
-      <c r="W392" s="2"/>
-      <c r="X392" s="2"/>
-      <c r="Y392" s="2"/>
-      <c r="Z392" s="2"/>
-      <c r="AA392" s="2"/>
-      <c r="AB392" s="2"/>
-      <c r="AC392" s="2"/>
+      <c r="A392" s="80"/>
+      <c r="B392" s="80"/>
+      <c r="C392" s="81" t="s">
+        <v>822</v>
+      </c>
+      <c r="D392" s="82">
+        <v>1003080389</v>
+      </c>
+      <c r="E392" s="83">
+        <v>3128533817</v>
+      </c>
+      <c r="F392" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G392" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="H392" s="97">
+        <v>8</v>
+      </c>
+      <c r="I392" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J392" s="82">
+        <v>26</v>
+      </c>
+      <c r="K392" s="81" t="s">
+        <v>621</v>
+      </c>
+      <c r="L392" s="75">
+        <v>5</v>
+      </c>
+      <c r="M392" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N392" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O392" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P392" s="81" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q392" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="R392" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S392" s="95">
+        <v>644350</v>
+      </c>
+      <c r="T392" s="146">
+        <v>42299</v>
+      </c>
+      <c r="U392" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V392" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W392" s="80"/>
+      <c r="X392" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y392" s="80"/>
+      <c r="Z392" s="80"/>
+      <c r="AA392" s="80"/>
+      <c r="AB392" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC392" s="80"/>
       <c r="AD392" s="2"/>
       <c r="AE392" s="2"/>
       <c r="AF392" s="2"/>

--- a/FM-72_FORMATO REPORTE EMPLEO ALCALDIA DE MEDELLÍN_FGSC2 OCTUBRE.xlsx
+++ b/FM-72_FORMATO REPORTE EMPLEO ALCALDIA DE MEDELLÍN_FGSC2 OCTUBRE.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5656" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5688" uniqueCount="830">
   <si>
     <t>Código:  FM-72</t>
   </si>
@@ -2515,6 +2515,27 @@
   </si>
   <si>
     <t>DIANA PATRICIA MAZO LOPEZ</t>
+  </si>
+  <si>
+    <t>RENUNCIA VOLUNTARIA A PARTIR DEL 16 DE OCTUBRE DEL 2015</t>
+  </si>
+  <si>
+    <t>TRASLADADO RUTA CAMPEONES 3</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER MAZO CARMONA</t>
+  </si>
+  <si>
+    <t>OLDMUTUAL</t>
+  </si>
+  <si>
+    <t>GERARD MOLINA BETANCUR</t>
+  </si>
+  <si>
+    <t>SIMON BOLIVAR</t>
+  </si>
+  <si>
+    <t>RENUNCIA VOLUNTARIA A PARTIR DEL 22 DE OCTUBRE DEL 2015</t>
   </si>
 </sst>
 </file>
@@ -2758,7 +2779,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2807,6 +2828,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2814,7 +2846,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3225,10 +3257,36 @@
     <xf numFmtId="167" fontId="6" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3237,15 +3295,6 @@
     </xf>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3540,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC392" sqref="A389:AC392"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" activeCellId="1" sqref="C35 D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3575,37 +3624,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="159"/>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="161" t="s">
+      <c r="A1" s="161"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="165" t="s">
         <v>600</v>
       </c>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
-      <c r="I1" s="155"/>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="155"/>
-      <c r="AB1" s="155"/>
-      <c r="AC1" s="155"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="162"/>
+      <c r="M1" s="162"/>
+      <c r="N1" s="162"/>
+      <c r="O1" s="162"/>
+      <c r="P1" s="162"/>
+      <c r="Q1" s="162"/>
+      <c r="R1" s="162"/>
+      <c r="S1" s="162"/>
+      <c r="T1" s="162"/>
+      <c r="U1" s="162"/>
+      <c r="V1" s="162"/>
+      <c r="W1" s="162"/>
+      <c r="X1" s="162"/>
+      <c r="Y1" s="162"/>
+      <c r="Z1" s="162"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -3618,43 +3667,43 @@
       <c r="AM1" s="2"/>
     </row>
     <row r="2" spans="1:39" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="160" t="s">
+      <c r="B2" s="162"/>
+      <c r="C2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="155"/>
-      <c r="E2" s="160" t="s">
+      <c r="D2" s="162"/>
+      <c r="E2" s="163" t="s">
         <v>306</v>
       </c>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="155"/>
-      <c r="U2" s="155"/>
-      <c r="V2" s="155"/>
-      <c r="W2" s="155"/>
-      <c r="X2" s="161" t="s">
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="155"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
@@ -3667,39 +3716,39 @@
       <c r="AM2" s="2"/>
     </row>
     <row r="3" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="155"/>
-      <c r="C3" s="154" t="s">
+      <c r="B3" s="162"/>
+      <c r="C3" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="155"/>
-      <c r="L3" s="155"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
-      <c r="R3" s="155"/>
-      <c r="S3" s="155"/>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155"/>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
+      <c r="L3" s="162"/>
+      <c r="M3" s="162"/>
+      <c r="N3" s="162"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="162"/>
+      <c r="Q3" s="162"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="162"/>
+      <c r="U3" s="162"/>
+      <c r="V3" s="162"/>
+      <c r="W3" s="162"/>
+      <c r="X3" s="162"/>
+      <c r="Y3" s="162"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="162"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
@@ -3712,39 +3761,39 @@
       <c r="AM3" s="2"/>
     </row>
     <row r="4" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="155"/>
-      <c r="C4" s="158">
+      <c r="B4" s="162"/>
+      <c r="C4" s="168">
         <v>42217</v>
       </c>
-      <c r="D4" s="155"/>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="155"/>
-      <c r="L4" s="155"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="155"/>
-      <c r="P4" s="155"/>
-      <c r="Q4" s="155"/>
-      <c r="R4" s="155"/>
-      <c r="S4" s="155"/>
-      <c r="T4" s="155"/>
-      <c r="U4" s="155"/>
-      <c r="V4" s="155"/>
-      <c r="W4" s="155"/>
-      <c r="X4" s="155"/>
-      <c r="Y4" s="155"/>
-      <c r="Z4" s="155"/>
-      <c r="AA4" s="155"/>
-      <c r="AB4" s="155"/>
-      <c r="AC4" s="155"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="162"/>
+      <c r="Q4" s="162"/>
+      <c r="R4" s="162"/>
+      <c r="S4" s="162"/>
+      <c r="T4" s="162"/>
+      <c r="U4" s="162"/>
+      <c r="V4" s="162"/>
+      <c r="W4" s="162"/>
+      <c r="X4" s="162"/>
+      <c r="Y4" s="162"/>
+      <c r="Z4" s="162"/>
+      <c r="AA4" s="162"/>
+      <c r="AB4" s="162"/>
+      <c r="AC4" s="162"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
@@ -3757,39 +3806,39 @@
       <c r="AM4" s="2"/>
     </row>
     <row r="5" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="154" t="s">
+      <c r="B5" s="162"/>
+      <c r="C5" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="155"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="155"/>
-      <c r="I5" s="155"/>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="155"/>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="155"/>
-      <c r="T5" s="155"/>
-      <c r="U5" s="155"/>
-      <c r="V5" s="155"/>
-      <c r="W5" s="155"/>
-      <c r="X5" s="155"/>
-      <c r="Y5" s="155"/>
-      <c r="Z5" s="155"/>
-      <c r="AA5" s="155"/>
-      <c r="AB5" s="155"/>
-      <c r="AC5" s="155"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="162"/>
+      <c r="R5" s="162"/>
+      <c r="S5" s="162"/>
+      <c r="T5" s="162"/>
+      <c r="U5" s="162"/>
+      <c r="V5" s="162"/>
+      <c r="W5" s="162"/>
+      <c r="X5" s="162"/>
+      <c r="Y5" s="162"/>
+      <c r="Z5" s="162"/>
+      <c r="AA5" s="162"/>
+      <c r="AB5" s="162"/>
+      <c r="AC5" s="162"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
@@ -3802,43 +3851,43 @@
       <c r="AM5" s="2"/>
     </row>
     <row r="6" spans="1:39" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="156" t="s">
+      <c r="B6" s="162"/>
+      <c r="C6" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="155"/>
-      <c r="L6" s="156" t="s">
+      <c r="D6" s="162"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="155"/>
-      <c r="N6" s="155"/>
-      <c r="O6" s="155"/>
-      <c r="P6" s="155"/>
-      <c r="Q6" s="155"/>
-      <c r="R6" s="155"/>
-      <c r="S6" s="155"/>
-      <c r="T6" s="155"/>
-      <c r="U6" s="157" t="s">
+      <c r="M6" s="162"/>
+      <c r="N6" s="162"/>
+      <c r="O6" s="162"/>
+      <c r="P6" s="162"/>
+      <c r="Q6" s="162"/>
+      <c r="R6" s="162"/>
+      <c r="S6" s="162"/>
+      <c r="T6" s="162"/>
+      <c r="U6" s="167" t="s">
         <v>10</v>
       </c>
-      <c r="V6" s="155"/>
-      <c r="W6" s="155"/>
-      <c r="X6" s="155"/>
-      <c r="Y6" s="155"/>
-      <c r="Z6" s="155"/>
-      <c r="AA6" s="155"/>
-      <c r="AB6" s="155"/>
-      <c r="AC6" s="155"/>
+      <c r="V6" s="162"/>
+      <c r="W6" s="162"/>
+      <c r="X6" s="162"/>
+      <c r="Y6" s="162"/>
+      <c r="Z6" s="162"/>
+      <c r="AA6" s="162"/>
+      <c r="AB6" s="162"/>
+      <c r="AC6" s="162"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
@@ -6225,7 +6274,9 @@
       <c r="AB35" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AC35" s="20"/>
+      <c r="AC35" s="20" t="s">
+        <v>829</v>
+      </c>
       <c r="AD35" s="58"/>
       <c r="AE35" s="20"/>
       <c r="AF35" s="20"/>
@@ -7334,7 +7385,9 @@
       <c r="AB48" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AC48" s="20"/>
+      <c r="AC48" s="20" t="s">
+        <v>824</v>
+      </c>
       <c r="AD48" s="59"/>
       <c r="AE48" s="20"/>
       <c r="AF48" s="20"/>
@@ -27859,7 +27912,9 @@
       <c r="AB297" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="AC297" s="71"/>
+      <c r="AC297" s="73" t="s">
+        <v>823</v>
+      </c>
       <c r="AD297" s="2"/>
       <c r="AE297" s="2"/>
       <c r="AF297" s="2"/>
@@ -35925,31 +35980,77 @@
     <row r="393" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
-      <c r="C393" s="2"/>
-      <c r="D393" s="4"/>
-      <c r="E393" s="2"/>
-      <c r="F393" s="2"/>
-      <c r="G393" s="2"/>
-      <c r="I393" s="2"/>
-      <c r="J393" s="2"/>
-      <c r="K393" s="2"/>
-      <c r="L393" s="2"/>
-      <c r="M393" s="2"/>
-      <c r="N393" s="2"/>
-      <c r="O393" s="2"/>
-      <c r="P393" s="2"/>
-      <c r="Q393" s="2"/>
-      <c r="R393" s="2"/>
-      <c r="T393" s="140"/>
-      <c r="U393" s="140"/>
-      <c r="V393" s="2"/>
-      <c r="W393" s="2"/>
-      <c r="X393" s="2"/>
-      <c r="Y393" s="2"/>
-      <c r="Z393" s="2"/>
-      <c r="AA393" s="2"/>
-      <c r="AB393" s="2"/>
-      <c r="AC393" s="2"/>
+      <c r="C393" s="81" t="s">
+        <v>825</v>
+      </c>
+      <c r="D393" s="82">
+        <v>71713372</v>
+      </c>
+      <c r="E393" s="83">
+        <v>3116112573</v>
+      </c>
+      <c r="F393" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="G393" s="73" t="s">
+        <v>637</v>
+      </c>
+      <c r="H393" s="97">
+        <v>6</v>
+      </c>
+      <c r="I393" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="J393" s="82">
+        <v>45</v>
+      </c>
+      <c r="K393" s="81" t="s">
+        <v>622</v>
+      </c>
+      <c r="L393" s="75">
+        <v>11</v>
+      </c>
+      <c r="M393" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="N393" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O393" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P393" s="81" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q393" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="R393" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S393" s="95">
+        <v>644350</v>
+      </c>
+      <c r="T393" s="145">
+        <v>42296</v>
+      </c>
+      <c r="U393" s="98">
+        <v>42038</v>
+      </c>
+      <c r="V393" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W393" s="80"/>
+      <c r="X393" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y393" s="80"/>
+      <c r="Z393" s="80"/>
+      <c r="AA393" s="80"/>
+      <c r="AB393" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC393" s="80"/>
       <c r="AD393" s="2"/>
       <c r="AE393" s="2"/>
       <c r="AF393" s="2"/>
@@ -35964,31 +36065,77 @@
     <row r="394" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
-      <c r="C394" s="2"/>
-      <c r="D394" s="4"/>
-      <c r="E394" s="2"/>
-      <c r="F394" s="2"/>
-      <c r="G394" s="2"/>
-      <c r="I394" s="2"/>
-      <c r="J394" s="2"/>
-      <c r="K394" s="2"/>
-      <c r="L394" s="2"/>
-      <c r="M394" s="2"/>
-      <c r="N394" s="2"/>
-      <c r="O394" s="2"/>
-      <c r="P394" s="2"/>
-      <c r="Q394" s="2"/>
-      <c r="R394" s="2"/>
-      <c r="T394" s="140"/>
-      <c r="U394" s="140"/>
-      <c r="V394" s="2"/>
-      <c r="W394" s="2"/>
-      <c r="X394" s="2"/>
-      <c r="Y394" s="2"/>
-      <c r="Z394" s="2"/>
-      <c r="AA394" s="2"/>
-      <c r="AB394" s="2"/>
-      <c r="AC394" s="2"/>
+      <c r="C394" s="154" t="s">
+        <v>827</v>
+      </c>
+      <c r="D394" s="155">
+        <v>98638294</v>
+      </c>
+      <c r="E394" s="156">
+        <v>3126121385</v>
+      </c>
+      <c r="F394" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="G394" s="157" t="s">
+        <v>828</v>
+      </c>
+      <c r="H394" s="158">
+        <v>12</v>
+      </c>
+      <c r="I394" s="154" t="s">
+        <v>139</v>
+      </c>
+      <c r="J394" s="155">
+        <v>36</v>
+      </c>
+      <c r="K394" s="154" t="s">
+        <v>622</v>
+      </c>
+      <c r="L394" s="159" t="s">
+        <v>43</v>
+      </c>
+      <c r="M394" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="N394" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="O394" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="P394" s="154" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q394" s="154" t="s">
+        <v>320</v>
+      </c>
+      <c r="R394" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="S394" s="160">
+        <v>3500000</v>
+      </c>
+      <c r="T394" s="146">
+        <v>42303</v>
+      </c>
+      <c r="U394" s="98">
+        <v>42403</v>
+      </c>
+      <c r="V394" s="75" t="s">
+        <v>763</v>
+      </c>
+      <c r="W394" s="80"/>
+      <c r="X394" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y394" s="80"/>
+      <c r="Z394" s="80"/>
+      <c r="AA394" s="80"/>
+      <c r="AB394" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC394" s="80"/>
       <c r="AD394" s="2"/>
       <c r="AE394" s="2"/>
       <c r="AF394" s="2"/>
@@ -60300,6 +60447,14 @@
   </sheetData>
   <autoFilter ref="A7:AM288"/>
   <mergeCells count="16">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="L6:T6"/>
+    <mergeCell ref="U6:AC6"/>
+    <mergeCell ref="C5:AC5"/>
+    <mergeCell ref="C4:AC4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:K6"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -60308,14 +60463,6 @@
     <mergeCell ref="E2:W2"/>
     <mergeCell ref="X2:AC2"/>
     <mergeCell ref="C3:AC3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="L6:T6"/>
-    <mergeCell ref="U6:AC6"/>
-    <mergeCell ref="C5:AC5"/>
-    <mergeCell ref="C4:AC4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:K6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I8" r:id="rId1" display="mailto:ramonaristizabal@hotmail.com"/>
